--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H2">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N2">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O2">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P2">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q2">
-        <v>25.31083023753</v>
+        <v>20.932762808815</v>
       </c>
       <c r="R2">
-        <v>227.79747213777</v>
+        <v>188.394865279335</v>
       </c>
       <c r="S2">
-        <v>0.01000008615426655</v>
+        <v>0.01265467696867939</v>
       </c>
       <c r="T2">
-        <v>0.01000008615426655</v>
+        <v>0.01265467696867939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H3">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I3">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J3">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.168486</v>
       </c>
       <c r="O3">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P3">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q3">
-        <v>48.01116296011001</v>
+        <v>48.93642339047</v>
       </c>
       <c r="R3">
-        <v>432.1004666409901</v>
+        <v>440.42781051423</v>
       </c>
       <c r="S3">
-        <v>0.01896878772691275</v>
+        <v>0.02958398925478396</v>
       </c>
       <c r="T3">
-        <v>0.01896878772691275</v>
+        <v>0.02958398925478396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H4">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I4">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J4">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N4">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O4">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P4">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q4">
-        <v>54.86470791181501</v>
+        <v>102.1611713441367</v>
       </c>
       <c r="R4">
-        <v>493.7823712063351</v>
+        <v>919.45054209723</v>
       </c>
       <c r="S4">
-        <v>0.02167656298896503</v>
+        <v>0.06176043907388742</v>
       </c>
       <c r="T4">
-        <v>0.02167656298896503</v>
+        <v>0.06176043907388743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H5">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I5">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J5">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N5">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O5">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P5">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q5">
-        <v>42.30681087720501</v>
+        <v>27.233191104405</v>
       </c>
       <c r="R5">
-        <v>380.761297894845</v>
+        <v>245.098719939645</v>
       </c>
       <c r="S5">
-        <v>0.01671504844819336</v>
+        <v>0.01646353323735328</v>
       </c>
       <c r="T5">
-        <v>0.01671504844819335</v>
+        <v>0.01646353323735329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H6">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I6">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J6">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N6">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O6">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P6">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q6">
-        <v>133.37477258814</v>
+        <v>48.36115836847167</v>
       </c>
       <c r="R6">
-        <v>1200.37295329326</v>
+        <v>435.250425316245</v>
       </c>
       <c r="S6">
-        <v>0.05269519822820583</v>
+        <v>0.02923621896324348</v>
       </c>
       <c r="T6">
-        <v>0.05269519822820581</v>
+        <v>0.02923621896324349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>38.941596</v>
       </c>
       <c r="I7">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J7">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N7">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O7">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P7">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q7">
-        <v>41.443282010232</v>
+        <v>33.626704192068</v>
       </c>
       <c r="R7">
-        <v>372.989538092088</v>
+        <v>302.640337728612</v>
       </c>
       <c r="S7">
-        <v>0.01637387579658978</v>
+        <v>0.0203286629174798</v>
       </c>
       <c r="T7">
-        <v>0.01637387579658977</v>
+        <v>0.0203286629174798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.941596</v>
       </c>
       <c r="I8">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J8">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>18.168486</v>
       </c>
       <c r="O8">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P8">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q8">
         <v>78.61220463818402</v>
@@ -948,10 +948,10 @@
         <v>707.5098417436561</v>
       </c>
       <c r="S8">
-        <v>0.03105898983878565</v>
+        <v>0.04752416413341354</v>
       </c>
       <c r="T8">
-        <v>0.03105898983878564</v>
+        <v>0.04752416413341354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.941596</v>
       </c>
       <c r="I9">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J9">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N9">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O9">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P9">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q9">
-        <v>89.83401733803602</v>
+        <v>164.113238184584</v>
       </c>
       <c r="R9">
-        <v>808.5061560423242</v>
+        <v>1477.019143661256</v>
       </c>
       <c r="S9">
-        <v>0.03549262922368295</v>
+        <v>0.09921289580729827</v>
       </c>
       <c r="T9">
-        <v>0.03549262922368294</v>
+        <v>0.09921289580729828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.941596</v>
       </c>
       <c r="I10">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J10">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N10">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O10">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P10">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q10">
-        <v>69.27204985705201</v>
+        <v>43.74780671991601</v>
       </c>
       <c r="R10">
-        <v>623.4484487134681</v>
+        <v>393.7302604792441</v>
       </c>
       <c r="S10">
-        <v>0.0273687769287796</v>
+        <v>0.02644726676478778</v>
       </c>
       <c r="T10">
-        <v>0.02736877692877959</v>
+        <v>0.02644726676478778</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.941596</v>
       </c>
       <c r="I11">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J11">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N11">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O11">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P11">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q11">
-        <v>218.3843146016161</v>
+        <v>77.68809027719603</v>
       </c>
       <c r="R11">
-        <v>1965.458831414544</v>
+        <v>699.1928124947641</v>
       </c>
       <c r="S11">
-        <v>0.08628171973270393</v>
+        <v>0.04696550072012075</v>
       </c>
       <c r="T11">
-        <v>0.08628171973270392</v>
+        <v>0.04696550072012076</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H12">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I12">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J12">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N12">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O12">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P12">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q12">
-        <v>70.08519396473</v>
+        <v>39.52528150662433</v>
       </c>
       <c r="R12">
-        <v>630.7667456825699</v>
+        <v>355.727533559619</v>
       </c>
       <c r="S12">
-        <v>0.02769004300564486</v>
+        <v>0.02389458449086413</v>
       </c>
       <c r="T12">
-        <v>0.02769004300564486</v>
+        <v>0.02389458449086414</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H13">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I13">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J13">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>18.168486</v>
       </c>
       <c r="O13">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P13">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q13">
-        <v>132.9419713598433</v>
+        <v>92.40184528442468</v>
       </c>
       <c r="R13">
-        <v>1196.47774223859</v>
+        <v>831.6166075598221</v>
       </c>
       <c r="S13">
-        <v>0.05252420227390394</v>
+        <v>0.05586054330543864</v>
       </c>
       <c r="T13">
-        <v>0.05252420227390394</v>
+        <v>0.05586054330543864</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H14">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I14">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J14">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N14">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O14">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P14">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q14">
-        <v>151.919303307415</v>
+        <v>192.9009129517802</v>
       </c>
       <c r="R14">
-        <v>1367.273729766735</v>
+        <v>1736.108216566022</v>
       </c>
       <c r="S14">
-        <v>0.06002197902294318</v>
+        <v>0.1166161754501011</v>
       </c>
       <c r="T14">
-        <v>0.06002197902294318</v>
+        <v>0.1166161754501011</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H15">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I15">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J15">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N15">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O15">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P15">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q15">
-        <v>117.1467319930717</v>
+        <v>51.421761883817</v>
       </c>
       <c r="R15">
-        <v>1054.320587937645</v>
+        <v>462.795856954353</v>
       </c>
       <c r="S15">
-        <v>0.04628364228386572</v>
+        <v>0.03108647395202069</v>
       </c>
       <c r="T15">
-        <v>0.04628364228386571</v>
+        <v>0.03108647395202069</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H16">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I16">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J16">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N16">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O16">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P16">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q16">
-        <v>369.3121371017401</v>
+        <v>91.31562880439922</v>
       </c>
       <c r="R16">
-        <v>3323.80923391566</v>
+        <v>821.840659239593</v>
       </c>
       <c r="S16">
-        <v>0.1459119734190949</v>
+        <v>0.05520388279682246</v>
       </c>
       <c r="T16">
-        <v>0.1459119734190949</v>
+        <v>0.05520388279682247</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H17">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I17">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J17">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N17">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O17">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P17">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q17">
-        <v>12.040330601534</v>
+        <v>10.732450215825</v>
       </c>
       <c r="R17">
-        <v>108.362975413806</v>
+        <v>96.592051942425</v>
       </c>
       <c r="S17">
-        <v>0.004757028600455023</v>
+        <v>0.006488187527090568</v>
       </c>
       <c r="T17">
-        <v>0.004757028600455022</v>
+        <v>0.006488187527090569</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H18">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I18">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J18">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>18.168486</v>
       </c>
       <c r="O18">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P18">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q18">
-        <v>22.83885076779134</v>
+        <v>25.09022495385</v>
       </c>
       <c r="R18">
-        <v>205.549656910122</v>
+        <v>225.81202458465</v>
       </c>
       <c r="S18">
-        <v>0.009023428832599134</v>
+        <v>0.01516802606337108</v>
       </c>
       <c r="T18">
-        <v>0.009023428832599132</v>
+        <v>0.01516802606337108</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H19">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I19">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J19">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N19">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O19">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P19">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q19">
-        <v>26.099073614557</v>
+        <v>52.37911953885</v>
       </c>
       <c r="R19">
-        <v>234.891662531013</v>
+        <v>471.41207584965</v>
       </c>
       <c r="S19">
-        <v>0.0103115141717131</v>
+        <v>0.0316652342417438</v>
       </c>
       <c r="T19">
-        <v>0.0103115141717131</v>
+        <v>0.03166523424174381</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H20">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I20">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J20">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N20">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O20">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P20">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q20">
-        <v>20.12529754566567</v>
+        <v>13.962746839275</v>
       </c>
       <c r="R20">
-        <v>181.127677910991</v>
+        <v>125.664721553475</v>
       </c>
       <c r="S20">
-        <v>0.007951327848522826</v>
+        <v>0.008441028662115574</v>
       </c>
       <c r="T20">
-        <v>0.007951327848522823</v>
+        <v>0.008441028662115576</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H21">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I21">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J21">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N21">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O21">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P21">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q21">
-        <v>63.44621416189202</v>
+        <v>24.795280456275</v>
       </c>
       <c r="R21">
-        <v>571.0159274570281</v>
+        <v>223.157524106475</v>
       </c>
       <c r="S21">
-        <v>0.02506704054457292</v>
+        <v>0.0149897205346365</v>
       </c>
       <c r="T21">
-        <v>0.02506704054457292</v>
+        <v>0.01498972053463651</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H22">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I22">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J22">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N22">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O22">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P22">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q22">
-        <v>61.94611911711601</v>
+        <v>35.01528335891734</v>
       </c>
       <c r="R22">
-        <v>557.515072054044</v>
+        <v>315.137550230256</v>
       </c>
       <c r="S22">
-        <v>0.02447436620135421</v>
+        <v>0.02116811354148039</v>
       </c>
       <c r="T22">
-        <v>0.02447436620135421</v>
+        <v>0.0211681135414804</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H23">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I23">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J23">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>18.168486</v>
       </c>
       <c r="O23">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P23">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q23">
-        <v>117.503266063092</v>
+        <v>81.85841244365869</v>
       </c>
       <c r="R23">
-        <v>1057.529394567828</v>
+        <v>736.7257119929282</v>
       </c>
       <c r="S23">
-        <v>0.04642450575549725</v>
+        <v>0.04948662420266862</v>
       </c>
       <c r="T23">
-        <v>0.04642450575549725</v>
+        <v>0.04948662420266862</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H24">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I24">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J24">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N24">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O24">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P24">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q24">
-        <v>134.276738445018</v>
+        <v>170.8901206957476</v>
       </c>
       <c r="R24">
-        <v>1208.490646005162</v>
+        <v>1538.011086261728</v>
       </c>
       <c r="S24">
-        <v>0.05305155699606689</v>
+        <v>0.1033097873555727</v>
       </c>
       <c r="T24">
-        <v>0.05305155699606689</v>
+        <v>0.1033097873555727</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H25">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I25">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J25">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N25">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O25">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P25">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q25">
-        <v>103.542346160526</v>
+        <v>45.55432610580801</v>
       </c>
       <c r="R25">
-        <v>931.8811154447342</v>
+        <v>409.9889349522721</v>
       </c>
       <c r="S25">
-        <v>0.04090866923380682</v>
+        <v>0.02753937866014129</v>
       </c>
       <c r="T25">
-        <v>0.04090866923380681</v>
+        <v>0.02753937866014129</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H26">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I26">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J26">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N26">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O26">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P26">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q26">
-        <v>326.4234903568081</v>
+        <v>80.89613775800358</v>
       </c>
       <c r="R26">
-        <v>2937.811413211273</v>
+        <v>728.0652398220321</v>
       </c>
       <c r="S26">
-        <v>0.1289670467428739</v>
+        <v>0.04890489137488466</v>
       </c>
       <c r="T26">
-        <v>0.1289670467428739</v>
+        <v>0.04890489137488466</v>
       </c>
     </row>
   </sheetData>
